--- a/data/pca/factorExposure/factorExposure_2015-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02006749097427989</v>
+        <v>-0.01195645534418637</v>
       </c>
       <c r="C2">
-        <v>-0.03932332271260368</v>
+        <v>-0.05374647134395147</v>
       </c>
       <c r="D2">
-        <v>0.1128323621391596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07451303314121301</v>
+      </c>
+      <c r="E2">
+        <v>0.07534642660952284</v>
+      </c>
+      <c r="F2">
+        <v>-0.04169844971176298</v>
+      </c>
+      <c r="G2">
+        <v>0.1563055000508242</v>
+      </c>
+      <c r="H2">
+        <v>-0.0001639689513549679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04778083190254846</v>
+        <v>-0.0202052751375041</v>
       </c>
       <c r="C4">
-        <v>-0.08167088248895382</v>
+        <v>-0.1176745565474321</v>
       </c>
       <c r="D4">
-        <v>0.07813050993767628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07956016476900604</v>
+      </c>
+      <c r="E4">
+        <v>0.09030603218160609</v>
+      </c>
+      <c r="F4">
+        <v>-0.1030393849205046</v>
+      </c>
+      <c r="G4">
+        <v>0.001440970144570854</v>
+      </c>
+      <c r="H4">
+        <v>-0.07040327615617235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03072379624981764</v>
+        <v>-0.03433707447946689</v>
       </c>
       <c r="C6">
-        <v>-0.02075730555307568</v>
+        <v>-0.04066755866451766</v>
       </c>
       <c r="D6">
-        <v>0.08586257417256229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06709773969355903</v>
+      </c>
+      <c r="E6">
+        <v>0.1082978320333564</v>
+      </c>
+      <c r="F6">
+        <v>-0.05105270113638802</v>
+      </c>
+      <c r="G6">
+        <v>0.004347073859916785</v>
+      </c>
+      <c r="H6">
+        <v>0.03107193233298005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001910508172414387</v>
+        <v>-0.006435093310245464</v>
       </c>
       <c r="C7">
-        <v>-0.03393665267556392</v>
+        <v>-0.04588901955128721</v>
       </c>
       <c r="D7">
-        <v>0.07073806963418577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04535802148276667</v>
+      </c>
+      <c r="E7">
+        <v>0.09208340682266339</v>
+      </c>
+      <c r="F7">
+        <v>-0.01655684850228569</v>
+      </c>
+      <c r="G7">
+        <v>-0.008025199161326721</v>
+      </c>
+      <c r="H7">
+        <v>-0.02499263911377498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.000960563904362436</v>
+        <v>0.005911046844332885</v>
       </c>
       <c r="C8">
-        <v>-0.03131520089414424</v>
+        <v>-0.04069497308719965</v>
       </c>
       <c r="D8">
-        <v>0.06805707946900498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0381936164015297</v>
+      </c>
+      <c r="E8">
+        <v>0.0678667115417146</v>
+      </c>
+      <c r="F8">
+        <v>-0.05710135949026514</v>
+      </c>
+      <c r="G8">
+        <v>0.05799629070810849</v>
+      </c>
+      <c r="H8">
+        <v>-0.05559528381469457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03431600824953679</v>
+        <v>-0.0132675374411178</v>
       </c>
       <c r="C9">
-        <v>-0.07233780156181348</v>
+        <v>-0.09653069763905617</v>
       </c>
       <c r="D9">
-        <v>0.08476367354379312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07099240093363023</v>
+      </c>
+      <c r="E9">
+        <v>0.07735727237970778</v>
+      </c>
+      <c r="F9">
+        <v>-0.07400010081324673</v>
+      </c>
+      <c r="G9">
+        <v>-0.001803855118919636</v>
+      </c>
+      <c r="H9">
+        <v>-0.01729824550308776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1976108380237243</v>
+        <v>-0.2436621216117116</v>
       </c>
       <c r="C10">
-        <v>0.1518945989275061</v>
+        <v>0.08698708702378477</v>
       </c>
       <c r="D10">
-        <v>-0.04703336092871134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007719972402539013</v>
+      </c>
+      <c r="E10">
+        <v>-0.02524909081701378</v>
+      </c>
+      <c r="F10">
+        <v>-0.03473266961435428</v>
+      </c>
+      <c r="G10">
+        <v>-0.01555123739630248</v>
+      </c>
+      <c r="H10">
+        <v>-0.001667360462035747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01120767806339184</v>
+        <v>-0.00916600996761616</v>
       </c>
       <c r="C11">
-        <v>-0.04150361386460303</v>
+        <v>-0.06099138406715707</v>
       </c>
       <c r="D11">
-        <v>0.04150336741204815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02539853079992435</v>
+      </c>
+      <c r="E11">
+        <v>0.05490525514654385</v>
+      </c>
+      <c r="F11">
+        <v>-0.001939732596174346</v>
+      </c>
+      <c r="G11">
+        <v>-0.009851077396864621</v>
+      </c>
+      <c r="H11">
+        <v>-0.007915929356735374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01036199979132751</v>
+        <v>-0.009839553849262144</v>
       </c>
       <c r="C12">
-        <v>-0.04282310603422158</v>
+        <v>-0.05130796271094756</v>
       </c>
       <c r="D12">
-        <v>0.05006558724456352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03216714922219353</v>
+      </c>
+      <c r="E12">
+        <v>0.04640173948265616</v>
+      </c>
+      <c r="F12">
+        <v>0.0003554439855932795</v>
+      </c>
+      <c r="G12">
+        <v>-0.002567174640540573</v>
+      </c>
+      <c r="H12">
+        <v>0.02400123348047487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01411219980166755</v>
+        <v>-0.003844118042207801</v>
       </c>
       <c r="C13">
-        <v>-0.03522437974055864</v>
+        <v>-0.06936216800155236</v>
       </c>
       <c r="D13">
-        <v>0.1129266736057128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1104260409906371</v>
+      </c>
+      <c r="E13">
+        <v>0.1080372060161327</v>
+      </c>
+      <c r="F13">
+        <v>-0.033598620540262</v>
+      </c>
+      <c r="G13">
+        <v>0.05783739320198455</v>
+      </c>
+      <c r="H13">
+        <v>0.07223049860897536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.008107466864916431</v>
+        <v>-0.003041655093008462</v>
       </c>
       <c r="C14">
-        <v>-0.01874656602675174</v>
+        <v>-0.03643422282704023</v>
       </c>
       <c r="D14">
-        <v>0.05891155280273857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04575958806982308</v>
+      </c>
+      <c r="E14">
+        <v>0.1078511541005189</v>
+      </c>
+      <c r="F14">
+        <v>-0.04017990395519312</v>
+      </c>
+      <c r="G14">
+        <v>0.01994979299062009</v>
+      </c>
+      <c r="H14">
+        <v>0.03742165827771734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002539805007277076</v>
+        <v>0.004816512101453731</v>
       </c>
       <c r="C15">
-        <v>-0.01228709196870579</v>
+        <v>-0.03340146667667578</v>
       </c>
       <c r="D15">
-        <v>0.05095691349637135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04684508760538438</v>
+      </c>
+      <c r="E15">
+        <v>0.06257884693141742</v>
+      </c>
+      <c r="F15">
+        <v>-0.01449404885483682</v>
+      </c>
+      <c r="G15">
+        <v>0.01932532654072546</v>
+      </c>
+      <c r="H15">
+        <v>-0.009312915765752071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01066693190421406</v>
+        <v>-0.008810666059850552</v>
       </c>
       <c r="C16">
-        <v>-0.04080768217631538</v>
+        <v>-0.05385679871357357</v>
       </c>
       <c r="D16">
-        <v>0.04567456445460017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02832082304637549</v>
+      </c>
+      <c r="E16">
+        <v>0.0505937263134984</v>
+      </c>
+      <c r="F16">
+        <v>0.0001427102815259945</v>
+      </c>
+      <c r="G16">
+        <v>-0.02232510479597221</v>
+      </c>
+      <c r="H16">
+        <v>0.005790771325111835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002641851537888584</v>
+        <v>0.0007566945299027968</v>
       </c>
       <c r="C19">
-        <v>-0.01952251527574621</v>
+        <v>-0.01546179092940155</v>
       </c>
       <c r="D19">
-        <v>0.04702410611474833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02362981759866035</v>
+      </c>
+      <c r="E19">
+        <v>0.008894906140217516</v>
+      </c>
+      <c r="F19">
+        <v>-0.0065929580449614</v>
+      </c>
+      <c r="G19">
+        <v>0.02543918030345927</v>
+      </c>
+      <c r="H19">
+        <v>0.00656941642126684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0001963242510559997</v>
+        <v>-0.003944291872464147</v>
       </c>
       <c r="C20">
-        <v>-0.03157987105181961</v>
+        <v>-0.04935492066713601</v>
       </c>
       <c r="D20">
-        <v>0.05422227288764858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0547696791580165</v>
+      </c>
+      <c r="E20">
+        <v>0.07019140987631066</v>
+      </c>
+      <c r="F20">
+        <v>-0.02774625890933223</v>
+      </c>
+      <c r="G20">
+        <v>-0.02328701323393989</v>
+      </c>
+      <c r="H20">
+        <v>-0.01305676118376571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007583114804948693</v>
+        <v>-0.003513024198984968</v>
       </c>
       <c r="C21">
-        <v>-0.03233037660739342</v>
+        <v>-0.0499200497688785</v>
       </c>
       <c r="D21">
-        <v>0.08536505855117582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07772958840842045</v>
+      </c>
+      <c r="E21">
+        <v>0.08792047325421176</v>
+      </c>
+      <c r="F21">
+        <v>-0.1029100441548418</v>
+      </c>
+      <c r="G21">
+        <v>0.08511856597242091</v>
+      </c>
+      <c r="H21">
+        <v>0.07687200376690638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004672562163195279</v>
+        <v>0.008869370855672472</v>
       </c>
       <c r="C22">
-        <v>-0.05727316382516977</v>
+        <v>-0.08581220988117448</v>
       </c>
       <c r="D22">
-        <v>0.1968957867841064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.187306377762811</v>
+      </c>
+      <c r="E22">
+        <v>0.1361613497105315</v>
+      </c>
+      <c r="F22">
+        <v>-0.07315004584325008</v>
+      </c>
+      <c r="G22">
+        <v>0.2088397071900319</v>
+      </c>
+      <c r="H22">
+        <v>-0.2148896167524769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005056553939225885</v>
+        <v>0.005755436199920787</v>
       </c>
       <c r="C23">
-        <v>-0.05774069770197419</v>
+        <v>-0.08793764668561338</v>
       </c>
       <c r="D23">
-        <v>0.1959579397852393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1908382307675889</v>
+      </c>
+      <c r="E23">
+        <v>0.1335618659414975</v>
+      </c>
+      <c r="F23">
+        <v>-0.07559872771031743</v>
+      </c>
+      <c r="G23">
+        <v>0.2040914317504858</v>
+      </c>
+      <c r="H23">
+        <v>-0.2059734840344384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01744169048977235</v>
+        <v>-0.01031133250798943</v>
       </c>
       <c r="C24">
-        <v>-0.06101697579095442</v>
+        <v>-0.07078522899670149</v>
       </c>
       <c r="D24">
-        <v>0.05711030122501769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02458387090550732</v>
+      </c>
+      <c r="E24">
+        <v>0.06090363375691144</v>
+      </c>
+      <c r="F24">
+        <v>-0.00304437072962634</v>
+      </c>
+      <c r="G24">
+        <v>0.000247491148242113</v>
+      </c>
+      <c r="H24">
+        <v>-0.001347280720243627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01678045051580691</v>
+        <v>-0.0144867588867217</v>
       </c>
       <c r="C25">
-        <v>-0.05290535476397992</v>
+        <v>-0.06518397460724427</v>
       </c>
       <c r="D25">
-        <v>0.04399581629367278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02961875284275567</v>
+      </c>
+      <c r="E25">
+        <v>0.0436686776394099</v>
+      </c>
+      <c r="F25">
+        <v>-0.005202996685309861</v>
+      </c>
+      <c r="G25">
+        <v>-0.01340673958004946</v>
+      </c>
+      <c r="H25">
+        <v>-0.0008107485697411174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007781280823699463</v>
+        <v>-0.01744324391522514</v>
       </c>
       <c r="C26">
-        <v>-0.01954330530455296</v>
+        <v>-0.03533856716456723</v>
       </c>
       <c r="D26">
-        <v>0.04861669015173588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02639018224612414</v>
+      </c>
+      <c r="E26">
+        <v>0.07839954042788469</v>
+      </c>
+      <c r="F26">
+        <v>-0.05357182507591645</v>
+      </c>
+      <c r="G26">
+        <v>0.02109163697965015</v>
+      </c>
+      <c r="H26">
+        <v>-0.003595173818881751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2794989623442877</v>
+        <v>-0.3129224725462347</v>
       </c>
       <c r="C28">
-        <v>0.1708579309601628</v>
+        <v>0.09347772615435421</v>
       </c>
       <c r="D28">
-        <v>-0.01099904342961726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.002959196357308112</v>
+      </c>
+      <c r="E28">
+        <v>-0.05444241551332788</v>
+      </c>
+      <c r="F28">
+        <v>-0.05361096558118614</v>
+      </c>
+      <c r="G28">
+        <v>0.04887528177823466</v>
+      </c>
+      <c r="H28">
+        <v>-0.05790023736566356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0008858232315417279</v>
+        <v>-0.002256785383602273</v>
       </c>
       <c r="C29">
-        <v>-0.0217354867852154</v>
+        <v>-0.04222840094764592</v>
       </c>
       <c r="D29">
-        <v>0.06261997053276393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.05210681154551051</v>
+      </c>
+      <c r="E29">
+        <v>0.1203429009762273</v>
+      </c>
+      <c r="F29">
+        <v>-0.04719565056547361</v>
+      </c>
+      <c r="G29">
+        <v>0.00950008152840426</v>
+      </c>
+      <c r="H29">
+        <v>0.0504800155797512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02667272744334788</v>
+        <v>-0.01598929676182212</v>
       </c>
       <c r="C30">
-        <v>-0.0766876304408628</v>
+        <v>-0.1031100761065072</v>
       </c>
       <c r="D30">
-        <v>0.1355173991549317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08444547616800605</v>
+      </c>
+      <c r="E30">
+        <v>0.1313828956959929</v>
+      </c>
+      <c r="F30">
+        <v>-0.0284789970477155</v>
+      </c>
+      <c r="G30">
+        <v>0.001496807177440434</v>
+      </c>
+      <c r="H30">
+        <v>-0.02531518424778246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03182358689939986</v>
+        <v>-0.0104747887776772</v>
       </c>
       <c r="C31">
-        <v>-0.08730134283852582</v>
+        <v>-0.09667908825999964</v>
       </c>
       <c r="D31">
-        <v>0.04349066737491139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01742743951029216</v>
+      </c>
+      <c r="E31">
+        <v>0.03163130926188761</v>
+      </c>
+      <c r="F31">
+        <v>-0.01878571925826675</v>
+      </c>
+      <c r="G31">
+        <v>0.01660546481169702</v>
+      </c>
+      <c r="H31">
+        <v>-0.009970996891958982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01798250530908414</v>
+        <v>-0.01227195126660428</v>
       </c>
       <c r="C32">
-        <v>-0.04266871056285326</v>
+        <v>-0.0550603051716026</v>
       </c>
       <c r="D32">
-        <v>0.08044139226322697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07522806368670808</v>
+      </c>
+      <c r="E32">
+        <v>0.03159587180346581</v>
+      </c>
+      <c r="F32">
+        <v>-0.06394350507738099</v>
+      </c>
+      <c r="G32">
+        <v>0.05060312198237821</v>
+      </c>
+      <c r="H32">
+        <v>0.0124560929278327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006451880397310407</v>
+        <v>-0.006849151920112288</v>
       </c>
       <c r="C33">
-        <v>-0.04431860328405842</v>
+        <v>-0.06812897039651065</v>
       </c>
       <c r="D33">
-        <v>0.08444518134382092</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07417381381516931</v>
+      </c>
+      <c r="E33">
+        <v>0.09474654265963847</v>
+      </c>
+      <c r="F33">
+        <v>-0.03964869945030616</v>
+      </c>
+      <c r="G33">
+        <v>0.005767769796125203</v>
+      </c>
+      <c r="H33">
+        <v>0.005473809870151612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01095955948654229</v>
+        <v>-0.007870775162171358</v>
       </c>
       <c r="C34">
-        <v>-0.06067035325740611</v>
+        <v>-0.06206729531182525</v>
       </c>
       <c r="D34">
-        <v>0.05898422039572506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01537985159899689</v>
+      </c>
+      <c r="E34">
+        <v>0.04646756234809491</v>
+      </c>
+      <c r="F34">
+        <v>0.02639069285443427</v>
+      </c>
+      <c r="G34">
+        <v>0.004117536150792856</v>
+      </c>
+      <c r="H34">
+        <v>0.01061430438468578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0006090697083687181</v>
+        <v>-0.004152495851354964</v>
       </c>
       <c r="C35">
-        <v>-0.0004410621426489798</v>
+        <v>-0.01757251325791066</v>
       </c>
       <c r="D35">
-        <v>0.003909668300136803</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02504146111959785</v>
+      </c>
+      <c r="E35">
+        <v>0.03467250284585364</v>
+      </c>
+      <c r="F35">
+        <v>-0.02802584613128932</v>
+      </c>
+      <c r="G35">
+        <v>-0.004343444056461318</v>
+      </c>
+      <c r="H35">
+        <v>0.01600116002375053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00723615903385815</v>
+        <v>-0.01150869785963363</v>
       </c>
       <c r="C36">
-        <v>-0.01257313494724062</v>
+        <v>-0.02737015178502808</v>
       </c>
       <c r="D36">
-        <v>0.04581439971098571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03939155364885735</v>
+      </c>
+      <c r="E36">
+        <v>0.07015678142437244</v>
+      </c>
+      <c r="F36">
+        <v>-0.05427209090433424</v>
+      </c>
+      <c r="G36">
+        <v>0.007811864790940625</v>
+      </c>
+      <c r="H36">
+        <v>0.00351683762171031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.003192137389100625</v>
+        <v>-0.008115575238503913</v>
       </c>
       <c r="C38">
-        <v>-0.00888291559208069</v>
+        <v>-0.0298623072934526</v>
       </c>
       <c r="D38">
-        <v>0.0747512221282889</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0667236748703538</v>
+      </c>
+      <c r="E38">
+        <v>0.07161664311172795</v>
+      </c>
+      <c r="F38">
+        <v>-0.01824946263975639</v>
+      </c>
+      <c r="G38">
+        <v>0.01443182529397161</v>
+      </c>
+      <c r="H38">
+        <v>-0.04322790450273107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01593785894903011</v>
+        <v>-0.007634618577599354</v>
       </c>
       <c r="C39">
-        <v>-0.06507127719624305</v>
+        <v>-0.09376837053599606</v>
       </c>
       <c r="D39">
-        <v>0.0963246717632064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04729956578952614</v>
+      </c>
+      <c r="E39">
+        <v>0.1127346210283408</v>
+      </c>
+      <c r="F39">
+        <v>0.001604192987593379</v>
+      </c>
+      <c r="G39">
+        <v>-0.008052155375028049</v>
+      </c>
+      <c r="H39">
+        <v>0.01695125967755509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01603365465875247</v>
+        <v>-0.01335514341901217</v>
       </c>
       <c r="C40">
-        <v>-0.02976804997399897</v>
+        <v>-0.0458274467292263</v>
       </c>
       <c r="D40">
-        <v>0.1061923230581448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06088145813549375</v>
+      </c>
+      <c r="E40">
+        <v>0.08860063757850876</v>
+      </c>
+      <c r="F40">
+        <v>0.02531987099163186</v>
+      </c>
+      <c r="G40">
+        <v>0.07027287901801699</v>
+      </c>
+      <c r="H40">
+        <v>0.009870276116796811</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009527104627370163</v>
+        <v>-0.01719024494623261</v>
       </c>
       <c r="C41">
-        <v>-0.00887408008199226</v>
+        <v>-0.02721338579000494</v>
       </c>
       <c r="D41">
-        <v>0.01949488521952933</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02796289785758548</v>
+      </c>
+      <c r="E41">
+        <v>0.02459231331805965</v>
+      </c>
+      <c r="F41">
+        <v>-0.0160650205559664</v>
+      </c>
+      <c r="G41">
+        <v>-0.0009662252955944583</v>
+      </c>
+      <c r="H41">
+        <v>-0.006380888447621409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002728648908572825</v>
+        <v>-0.008259567738401696</v>
       </c>
       <c r="C43">
-        <v>-0.006145554833925534</v>
+        <v>-0.0211111847044857</v>
       </c>
       <c r="D43">
-        <v>0.03624650783387408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03468692082627099</v>
+      </c>
+      <c r="E43">
+        <v>0.04157757559792054</v>
+      </c>
+      <c r="F43">
+        <v>-0.022065724604689</v>
+      </c>
+      <c r="G43">
+        <v>-0.00524038146540202</v>
+      </c>
+      <c r="H43">
+        <v>-0.01182594496429454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01812162165760893</v>
+        <v>-0.007882758728726685</v>
       </c>
       <c r="C44">
-        <v>-0.03449758964275138</v>
+        <v>-0.05634708134690964</v>
       </c>
       <c r="D44">
-        <v>0.08236513505646308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06572911832700216</v>
+      </c>
+      <c r="E44">
+        <v>0.1010356393237862</v>
+      </c>
+      <c r="F44">
+        <v>-0.04531897872709386</v>
+      </c>
+      <c r="G44">
+        <v>0.03068648583851648</v>
+      </c>
+      <c r="H44">
+        <v>-0.02719886252776946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003599294831956248</v>
+        <v>9.245543233287039e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03140118617517742</v>
+        <v>-0.0441542668077271</v>
       </c>
       <c r="D46">
-        <v>0.06417221168123002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03328631542197</v>
+      </c>
+      <c r="E46">
+        <v>0.09222740982405399</v>
+      </c>
+      <c r="F46">
+        <v>-0.04334966151333414</v>
+      </c>
+      <c r="G46">
+        <v>0.0204274922760385</v>
+      </c>
+      <c r="H46">
+        <v>0.005685895612048535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06742534944998652</v>
+        <v>-0.03046739323526703</v>
       </c>
       <c r="C47">
-        <v>-0.1126608846368932</v>
+        <v>-0.1236621427902687</v>
       </c>
       <c r="D47">
-        <v>0.05075901739944481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01825646638880045</v>
+      </c>
+      <c r="E47">
+        <v>0.004875786592547271</v>
+      </c>
+      <c r="F47">
+        <v>-0.005259149860688852</v>
+      </c>
+      <c r="G47">
+        <v>-0.009099714000198324</v>
+      </c>
+      <c r="H47">
+        <v>-0.01962144691744023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005913631619357334</v>
+        <v>-0.01260562690181037</v>
       </c>
       <c r="C48">
-        <v>-0.01887386392788111</v>
+        <v>-0.03490034054616364</v>
       </c>
       <c r="D48">
-        <v>0.04868840263602049</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0440121806341415</v>
+      </c>
+      <c r="E48">
+        <v>0.07214887320099814</v>
+      </c>
+      <c r="F48">
+        <v>-0.06788437650019452</v>
+      </c>
+      <c r="G48">
+        <v>0.01547032108330912</v>
+      </c>
+      <c r="H48">
+        <v>-0.009100336686523033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002536508674192801</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006396220774553722</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003473291672399749</v>
+      </c>
+      <c r="E49">
+        <v>0.002159040924596236</v>
+      </c>
+      <c r="F49">
+        <v>0.006947966729455681</v>
+      </c>
+      <c r="G49">
+        <v>-0.01059072370592963</v>
+      </c>
+      <c r="H49">
+        <v>0.0139689304712052</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03259977428641841</v>
+        <v>-0.01480961848132905</v>
       </c>
       <c r="C50">
-        <v>-0.05927824684056374</v>
+        <v>-0.07704533668717189</v>
       </c>
       <c r="D50">
-        <v>0.06274334481491448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03475414622015754</v>
+      </c>
+      <c r="E50">
+        <v>0.04123432078418541</v>
+      </c>
+      <c r="F50">
+        <v>-0.01509514078255486</v>
+      </c>
+      <c r="G50">
+        <v>0.009038134805220371</v>
+      </c>
+      <c r="H50">
+        <v>-0.02566338672503482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007373907060429287</v>
+        <v>0.004050474580176476</v>
       </c>
       <c r="C51">
-        <v>-0.007683322765859357</v>
+        <v>-0.02039596613352658</v>
       </c>
       <c r="D51">
-        <v>0.0500797318190266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01754381229297226</v>
+      </c>
+      <c r="E51">
+        <v>0.06207220550741665</v>
+      </c>
+      <c r="F51">
+        <v>-0.035983079596049</v>
+      </c>
+      <c r="G51">
+        <v>0.03765566381873645</v>
+      </c>
+      <c r="H51">
+        <v>-0.003686059272942667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1012122913963985</v>
+        <v>-0.05891956361041018</v>
       </c>
       <c r="C53">
-        <v>-0.1393208560795442</v>
+        <v>-0.1643201915956599</v>
       </c>
       <c r="D53">
-        <v>-0.006411596104835648</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01866569652861134</v>
+      </c>
+      <c r="E53">
+        <v>-0.03392935341987194</v>
+      </c>
+      <c r="F53">
+        <v>-0.03297699149989879</v>
+      </c>
+      <c r="G53">
+        <v>0.00459596842459971</v>
+      </c>
+      <c r="H53">
+        <v>-0.008087403076657569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00484369807747983</v>
+        <v>-0.009882847977913787</v>
       </c>
       <c r="C54">
-        <v>-0.02653032903233377</v>
+        <v>-0.04329471194026399</v>
       </c>
       <c r="D54">
-        <v>0.08173667664997095</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.05939856976709477</v>
+      </c>
+      <c r="E54">
+        <v>0.0675243388367425</v>
+      </c>
+      <c r="F54">
+        <v>-0.02173547380100269</v>
+      </c>
+      <c r="G54">
+        <v>0.01610594868013948</v>
+      </c>
+      <c r="H54">
+        <v>-0.02392594910966788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08407127260067961</v>
+        <v>-0.04106598457669725</v>
       </c>
       <c r="C55">
-        <v>-0.1137817605370374</v>
+        <v>-0.1275369430594155</v>
       </c>
       <c r="D55">
-        <v>0.0005495543963431368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04721037261932014</v>
+      </c>
+      <c r="E55">
+        <v>-0.02003099620033941</v>
+      </c>
+      <c r="F55">
+        <v>0.004157655856944665</v>
+      </c>
+      <c r="G55">
+        <v>0.02124334032397524</v>
+      </c>
+      <c r="H55">
+        <v>-0.007459947504161703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1246569457840532</v>
+        <v>-0.06038852559334457</v>
       </c>
       <c r="C56">
-        <v>-0.1635015931683759</v>
+        <v>-0.1924731434838618</v>
       </c>
       <c r="D56">
-        <v>0.02117419476547493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04090755789824326</v>
+      </c>
+      <c r="E56">
+        <v>-0.04793884789650422</v>
+      </c>
+      <c r="F56">
+        <v>0.01226182541762971</v>
+      </c>
+      <c r="G56">
+        <v>0.0681938667330601</v>
+      </c>
+      <c r="H56">
+        <v>-0.02932967449721135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01082338415483093</v>
+        <v>-0.008285453919315258</v>
       </c>
       <c r="C58">
-        <v>-0.03191179137103868</v>
+        <v>-0.0788101680781014</v>
       </c>
       <c r="D58">
-        <v>0.1745706944151059</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2002449446273004</v>
+      </c>
+      <c r="E58">
+        <v>0.1412440984225987</v>
+      </c>
+      <c r="F58">
+        <v>-0.14536303650601</v>
+      </c>
+      <c r="G58">
+        <v>0.1465016440501306</v>
+      </c>
+      <c r="H58">
+        <v>-0.1369274877200716</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2062985147979371</v>
+        <v>-0.2609976012000902</v>
       </c>
       <c r="C59">
-        <v>0.1213999607614178</v>
+        <v>0.05435907824222066</v>
       </c>
       <c r="D59">
-        <v>0.04532663851659203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04471871245580965</v>
+      </c>
+      <c r="E59">
+        <v>-0.0001184099670593671</v>
+      </c>
+      <c r="F59">
+        <v>-0.02345402975182816</v>
+      </c>
+      <c r="G59">
+        <v>0.04152803985069799</v>
+      </c>
+      <c r="H59">
+        <v>0.02381971385222192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.171281974113642</v>
+        <v>-0.1512759664635281</v>
       </c>
       <c r="C60">
-        <v>-0.1089789757592564</v>
+        <v>-0.1655803995147044</v>
       </c>
       <c r="D60">
-        <v>0.1221970461279308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02349780693056985</v>
+      </c>
+      <c r="E60">
+        <v>0.1135919188532661</v>
+      </c>
+      <c r="F60">
+        <v>0.1734329780552879</v>
+      </c>
+      <c r="G60">
+        <v>-0.1938823911598751</v>
+      </c>
+      <c r="H60">
+        <v>0.1903375171629765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02041900890672417</v>
+        <v>-0.01332231631037485</v>
       </c>
       <c r="C61">
-        <v>-0.05763899435590428</v>
+        <v>-0.08123203995657113</v>
       </c>
       <c r="D61">
-        <v>0.06895925706348724</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03507819557770028</v>
+      </c>
+      <c r="E61">
+        <v>0.07807985799434981</v>
+      </c>
+      <c r="F61">
+        <v>-0.001179562724071181</v>
+      </c>
+      <c r="G61">
+        <v>-0.001924455830955067</v>
+      </c>
+      <c r="H61">
+        <v>0.006126244752362869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-8.641556225445085e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0001345566225276715</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>5.06773590631924e-05</v>
+      </c>
+      <c r="E62">
+        <v>-0.0002553455097889265</v>
+      </c>
+      <c r="F62">
+        <v>-0.0003378649248598884</v>
+      </c>
+      <c r="G62">
+        <v>0.0001875981863089221</v>
+      </c>
+      <c r="H62">
+        <v>-0.0009516098227991024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.008523860989270523</v>
+        <v>-0.01562632014552707</v>
       </c>
       <c r="C63">
-        <v>-0.03035888881700432</v>
+        <v>-0.04916772697289685</v>
       </c>
       <c r="D63">
-        <v>0.06442876346875241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02401614677052352</v>
+      </c>
+      <c r="E63">
+        <v>0.09538214007729048</v>
+      </c>
+      <c r="F63">
+        <v>-0.02757054961730041</v>
+      </c>
+      <c r="G63">
+        <v>-0.003794595506501536</v>
+      </c>
+      <c r="H63">
+        <v>0.003152291067771731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04329282686879072</v>
+        <v>-0.01469671030899815</v>
       </c>
       <c r="C64">
-        <v>-0.09635538596238276</v>
+        <v>-0.1026596825522035</v>
       </c>
       <c r="D64">
-        <v>0.0162644929994242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.004128950760203272</v>
+      </c>
+      <c r="E64">
+        <v>0.03155732479428291</v>
+      </c>
+      <c r="F64">
+        <v>-0.03006956263342882</v>
+      </c>
+      <c r="G64">
+        <v>-0.03007646812126893</v>
+      </c>
+      <c r="H64">
+        <v>-0.01626178771160089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02672954930096268</v>
+        <v>-0.02672650901733563</v>
       </c>
       <c r="C65">
-        <v>-0.01882478275839968</v>
+        <v>-0.04910345959983776</v>
       </c>
       <c r="D65">
-        <v>0.08779746307875468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08054210180127061</v>
+      </c>
+      <c r="E65">
+        <v>0.09439009098832496</v>
+      </c>
+      <c r="F65">
+        <v>0.001758806207378489</v>
+      </c>
+      <c r="G65">
+        <v>-0.06301178635381084</v>
+      </c>
+      <c r="H65">
+        <v>0.01348757726065511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02218973920589124</v>
+        <v>-0.007941413584040271</v>
       </c>
       <c r="C66">
-        <v>-0.07561173407551219</v>
+        <v>-0.114333242668569</v>
       </c>
       <c r="D66">
-        <v>0.1189135430326154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07736643739797633</v>
+      </c>
+      <c r="E66">
+        <v>0.1136837661847997</v>
+      </c>
+      <c r="F66">
+        <v>-0.004912632139755498</v>
+      </c>
+      <c r="G66">
+        <v>0.01810904934332933</v>
+      </c>
+      <c r="H66">
+        <v>-0.006867696340950399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01618402602256606</v>
+        <v>-0.01682361598308984</v>
       </c>
       <c r="C67">
-        <v>-0.0165786587646936</v>
+        <v>-0.03520362313618616</v>
       </c>
       <c r="D67">
-        <v>0.04427962772606558</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03428696506977852</v>
+      </c>
+      <c r="E67">
+        <v>0.05290904603529844</v>
+      </c>
+      <c r="F67">
+        <v>0.01130012560429165</v>
+      </c>
+      <c r="G67">
+        <v>-0.004248614844462624</v>
+      </c>
+      <c r="H67">
+        <v>-0.02773148304603386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2195671339532839</v>
+        <v>-0.2806319438128191</v>
       </c>
       <c r="C68">
-        <v>0.1342680393561607</v>
+        <v>0.06613115705416353</v>
       </c>
       <c r="D68">
-        <v>0.02631374748776538</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03574885412805106</v>
+      </c>
+      <c r="E68">
+        <v>0.02064690752243888</v>
+      </c>
+      <c r="F68">
+        <v>-0.02966401985738919</v>
+      </c>
+      <c r="G68">
+        <v>0.04008358818546736</v>
+      </c>
+      <c r="H68">
+        <v>-0.02329108444754743</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0478826376382531</v>
+        <v>-0.01420782315024582</v>
       </c>
       <c r="C69">
-        <v>-0.1182511033110585</v>
+        <v>-0.1095245703578052</v>
       </c>
       <c r="D69">
-        <v>0.0645925836623322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01512942037683587</v>
+      </c>
+      <c r="E69">
+        <v>0.01489240033179965</v>
+      </c>
+      <c r="F69">
+        <v>0.004037898362538549</v>
+      </c>
+      <c r="G69">
+        <v>-0.002527247417939159</v>
+      </c>
+      <c r="H69">
+        <v>0.003404216111175607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2342094985320945</v>
+        <v>-0.2706587816640046</v>
       </c>
       <c r="C71">
-        <v>0.1550747008836339</v>
+        <v>0.08059365300402414</v>
       </c>
       <c r="D71">
-        <v>0.01483566582791555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01250118858709864</v>
+      </c>
+      <c r="E71">
+        <v>-0.001929868458278655</v>
+      </c>
+      <c r="F71">
+        <v>-0.01208599739892832</v>
+      </c>
+      <c r="G71">
+        <v>0.03599558325652449</v>
+      </c>
+      <c r="H71">
+        <v>-0.03907046339920557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09902393502348372</v>
+        <v>-0.06544499308138922</v>
       </c>
       <c r="C72">
-        <v>-0.08211920000822734</v>
+        <v>-0.1255303412088616</v>
       </c>
       <c r="D72">
-        <v>0.08711800615702034</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02305692093064072</v>
+      </c>
+      <c r="E72">
+        <v>0.08352907261287229</v>
+      </c>
+      <c r="F72">
+        <v>0.01454692109139328</v>
+      </c>
+      <c r="G72">
+        <v>-0.04211958925081452</v>
+      </c>
+      <c r="H72">
+        <v>0.01581473697106783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1702780761950179</v>
+        <v>-0.1569290773861187</v>
       </c>
       <c r="C73">
-        <v>-0.08701964962230234</v>
+        <v>-0.1720671429341497</v>
       </c>
       <c r="D73">
-        <v>0.1765251553875582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-1.009765858123307e-07</v>
+      </c>
+      <c r="E73">
+        <v>0.2564047729799007</v>
+      </c>
+      <c r="F73">
+        <v>0.2964173552319422</v>
+      </c>
+      <c r="G73">
+        <v>-0.3553429132519665</v>
+      </c>
+      <c r="H73">
+        <v>0.2439964647124755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09544352397312854</v>
+        <v>-0.05000371810515875</v>
       </c>
       <c r="C74">
-        <v>-0.1228267331072952</v>
+        <v>-0.1400950569338171</v>
       </c>
       <c r="D74">
-        <v>-0.05413746230354222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04291034527071039</v>
+      </c>
+      <c r="E74">
+        <v>-0.04720179955746656</v>
+      </c>
+      <c r="F74">
+        <v>-0.03166259433029911</v>
+      </c>
+      <c r="G74">
+        <v>0.004298471712465005</v>
+      </c>
+      <c r="H74">
+        <v>-0.01091830116867879</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2064960041753516</v>
+        <v>-0.09707536337199682</v>
       </c>
       <c r="C75">
-        <v>-0.2165425021197429</v>
+        <v>-0.2571304801419603</v>
       </c>
       <c r="D75">
-        <v>-0.02851999421733515</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.08899301739040232</v>
+      </c>
+      <c r="E75">
+        <v>-0.1364142879394308</v>
+      </c>
+      <c r="F75">
+        <v>0.07065864952339876</v>
+      </c>
+      <c r="G75">
+        <v>0.08614886161828697</v>
+      </c>
+      <c r="H75">
+        <v>-0.1331103451680434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1262518829277687</v>
+        <v>-0.06050258182304338</v>
       </c>
       <c r="C76">
-        <v>-0.1488653594102337</v>
+        <v>-0.17817761772943</v>
       </c>
       <c r="D76">
-        <v>0.01091580117868044</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04022639293837278</v>
+      </c>
+      <c r="E76">
+        <v>-0.05031777291744733</v>
+      </c>
+      <c r="F76">
+        <v>0.02272897755496427</v>
+      </c>
+      <c r="G76">
+        <v>0.03431225935336202</v>
+      </c>
+      <c r="H76">
+        <v>-0.0142248080000902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.008079042880231476</v>
+        <v>0.001920350003384213</v>
       </c>
       <c r="C77">
-        <v>-0.08263059658467277</v>
+        <v>-0.1251309594644178</v>
       </c>
       <c r="D77">
-        <v>0.2342291821397648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7320495403122379</v>
+      </c>
+      <c r="E77">
+        <v>-0.5862572062726669</v>
+      </c>
+      <c r="F77">
+        <v>0.1274937579524175</v>
+      </c>
+      <c r="G77">
+        <v>-0.1806080754734114</v>
+      </c>
+      <c r="H77">
+        <v>0.03573020691300417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03259707174769341</v>
+        <v>-0.02207372104461354</v>
       </c>
       <c r="C78">
-        <v>-0.0827066355684364</v>
+        <v>-0.1000006056173947</v>
       </c>
       <c r="D78">
-        <v>0.1351121271347686</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.04532115366808143</v>
+      </c>
+      <c r="E78">
+        <v>0.100049316285492</v>
+      </c>
+      <c r="F78">
+        <v>-0.04358454098627004</v>
+      </c>
+      <c r="G78">
+        <v>0.1048684262982823</v>
+      </c>
+      <c r="H78">
+        <v>0.004070934966546646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1098395636926394</v>
+        <v>-0.05285807795053237</v>
       </c>
       <c r="C79">
-        <v>-0.2266881807900403</v>
+        <v>-0.2205269668090352</v>
       </c>
       <c r="D79">
-        <v>-0.6595507880926249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1673876563428284</v>
+      </c>
+      <c r="E79">
+        <v>-0.1871900966443115</v>
+      </c>
+      <c r="F79">
+        <v>-0.7662205274569994</v>
+      </c>
+      <c r="G79">
+        <v>-0.4098790630351604</v>
+      </c>
+      <c r="H79">
+        <v>0.119329707806182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006817147498025581</v>
+        <v>-0.009424047239585056</v>
       </c>
       <c r="C80">
-        <v>-0.04185747011691844</v>
+        <v>-0.04427764074045736</v>
       </c>
       <c r="D80">
-        <v>0.02642676729759805</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.001963997722190144</v>
+      </c>
+      <c r="E80">
+        <v>0.06443581749958022</v>
+      </c>
+      <c r="F80">
+        <v>0.00155568869052071</v>
+      </c>
+      <c r="G80">
+        <v>0.01828105648174226</v>
+      </c>
+      <c r="H80">
+        <v>0.073011108830061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09616938106216129</v>
+        <v>-0.03175880095910454</v>
       </c>
       <c r="C81">
-        <v>-0.1409279382327303</v>
+        <v>-0.1573759993481223</v>
       </c>
       <c r="D81">
-        <v>-0.06914600111472916</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.05895121654322189</v>
+      </c>
+      <c r="E81">
+        <v>-0.07630805229724195</v>
+      </c>
+      <c r="F81">
+        <v>-0.04515770361280967</v>
+      </c>
+      <c r="G81">
+        <v>0.07076402293512042</v>
+      </c>
+      <c r="H81">
+        <v>-0.0203137899729932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2005473806324853</v>
+        <v>-0.07770640138406842</v>
       </c>
       <c r="C82">
-        <v>-0.3057873577127823</v>
+        <v>-0.2881114175547941</v>
       </c>
       <c r="D82">
-        <v>-0.05109415887784172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1746952424582176</v>
+      </c>
+      <c r="E82">
+        <v>-0.1667567865807376</v>
+      </c>
+      <c r="F82">
+        <v>0.144412465109541</v>
+      </c>
+      <c r="G82">
+        <v>0.1653777232409708</v>
+      </c>
+      <c r="H82">
+        <v>-0.04921168207120363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0104068782793787</v>
+        <v>0.006786777819902257</v>
       </c>
       <c r="C83">
-        <v>-0.0461027080480218</v>
+        <v>-0.01468149570835868</v>
       </c>
       <c r="D83">
-        <v>0.003212707794806512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03985864754844847</v>
+      </c>
+      <c r="E83">
+        <v>-0.1047390005620338</v>
+      </c>
+      <c r="F83">
+        <v>-0.111256947956049</v>
+      </c>
+      <c r="G83">
+        <v>0.5006552302318432</v>
+      </c>
+      <c r="H83">
+        <v>0.7831164551115505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001520884798513521</v>
+        <v>0.003704800538531732</v>
       </c>
       <c r="C84">
-        <v>-0.004574149799046335</v>
+        <v>-0.01954183432747585</v>
       </c>
       <c r="D84">
-        <v>0.01014462750362989</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03616769288540381</v>
+      </c>
+      <c r="E84">
+        <v>0.03829872785810551</v>
+      </c>
+      <c r="F84">
+        <v>-0.03927634451631197</v>
+      </c>
+      <c r="G84">
+        <v>0.03617092533753492</v>
+      </c>
+      <c r="H84">
+        <v>-0.05883335536711382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1232047136645837</v>
+        <v>-0.0548571067104729</v>
       </c>
       <c r="C85">
-        <v>-0.1590675414245056</v>
+        <v>-0.1770157620824017</v>
       </c>
       <c r="D85">
-        <v>-0.09135001038075612</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1156853140449312</v>
+      </c>
+      <c r="E85">
+        <v>-0.05943541697928905</v>
+      </c>
+      <c r="F85">
+        <v>-0.03867737680149398</v>
+      </c>
+      <c r="G85">
+        <v>0.009982061370176862</v>
+      </c>
+      <c r="H85">
+        <v>-0.03426009956693919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02627860264688094</v>
+        <v>-0.01621141908084355</v>
       </c>
       <c r="C86">
-        <v>-0.01024709305268442</v>
+        <v>-0.04257141277379406</v>
       </c>
       <c r="D86">
-        <v>0.08001570968509353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08544087244764438</v>
+      </c>
+      <c r="E86">
+        <v>0.02638201089872</v>
+      </c>
+      <c r="F86">
+        <v>-0.05174066898489461</v>
+      </c>
+      <c r="G86">
+        <v>0.0313369462158558</v>
+      </c>
+      <c r="H86">
+        <v>-0.06021323784875314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02344034103309091</v>
+        <v>-0.01199000386728471</v>
       </c>
       <c r="C87">
-        <v>-0.04097457310742648</v>
+        <v>-0.06912861774331464</v>
       </c>
       <c r="D87">
-        <v>0.1153310076098912</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.097780165570529</v>
+      </c>
+      <c r="E87">
+        <v>0.08644453053554842</v>
+      </c>
+      <c r="F87">
+        <v>-0.05593128126796931</v>
+      </c>
+      <c r="G87">
+        <v>0.07145476546388926</v>
+      </c>
+      <c r="H87">
+        <v>-0.03023678579437901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04332451133264267</v>
+        <v>-0.03454890784940948</v>
       </c>
       <c r="C88">
-        <v>-0.05428910470317278</v>
+        <v>-0.07142337605224393</v>
       </c>
       <c r="D88">
-        <v>-0.001330982894244225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.004730057345432013</v>
+      </c>
+      <c r="E88">
+        <v>0.03051791802006663</v>
+      </c>
+      <c r="F88">
+        <v>-0.01679001506280433</v>
+      </c>
+      <c r="G88">
+        <v>-0.01618480894382508</v>
+      </c>
+      <c r="H88">
+        <v>-0.000330828044134409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3520002016671508</v>
+        <v>-0.3996885094918814</v>
       </c>
       <c r="C89">
-        <v>0.2846181416773055</v>
+        <v>0.1607019640083407</v>
       </c>
       <c r="D89">
-        <v>0.005123007464604946</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04596463830541847</v>
+      </c>
+      <c r="E89">
+        <v>-0.008911211267232644</v>
+      </c>
+      <c r="F89">
+        <v>-0.06127773072337551</v>
+      </c>
+      <c r="G89">
+        <v>0.08744848711921906</v>
+      </c>
+      <c r="H89">
+        <v>0.09181036194036118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2810075360145173</v>
+        <v>-0.3221790971833715</v>
       </c>
       <c r="C90">
-        <v>0.2052224784638896</v>
+        <v>0.09927460768509414</v>
       </c>
       <c r="D90">
-        <v>0.06217279054794167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03319164651310723</v>
+      </c>
+      <c r="E90">
+        <v>0.01935966420996116</v>
+      </c>
+      <c r="F90">
+        <v>0.009717418719138615</v>
+      </c>
+      <c r="G90">
+        <v>0.04663400948217978</v>
+      </c>
+      <c r="H90">
+        <v>-0.01378919078454946</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1316845762317611</v>
+        <v>-0.06369702089593073</v>
       </c>
       <c r="C91">
-        <v>-0.1997598914495851</v>
+        <v>-0.1983294509945835</v>
       </c>
       <c r="D91">
-        <v>-0.0969881814197698</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.07924687769863287</v>
+      </c>
+      <c r="E91">
+        <v>-0.1219926919477329</v>
+      </c>
+      <c r="F91">
+        <v>-0.04855398478501238</v>
+      </c>
+      <c r="G91">
+        <v>0.03009610167744263</v>
+      </c>
+      <c r="H91">
+        <v>0.001493849574204898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.267072376204099</v>
+        <v>-0.3374439801556395</v>
       </c>
       <c r="C92">
-        <v>0.2384433077536955</v>
+        <v>0.1463851218514269</v>
       </c>
       <c r="D92">
-        <v>-0.03591683961316507</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04599035596778519</v>
+      </c>
+      <c r="E92">
+        <v>-0.0477429855363424</v>
+      </c>
+      <c r="F92">
+        <v>-0.05391304686936638</v>
+      </c>
+      <c r="G92">
+        <v>-0.003982303874619035</v>
+      </c>
+      <c r="H92">
+        <v>-0.1318038262849189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2987973799835336</v>
+        <v>-0.3311024774733768</v>
       </c>
       <c r="C93">
-        <v>0.2184294086497587</v>
+        <v>0.1203770619862862</v>
       </c>
       <c r="D93">
-        <v>-0.03166144201631554</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02541050427663454</v>
+      </c>
+      <c r="E93">
+        <v>-0.008170858377692328</v>
+      </c>
+      <c r="F93">
+        <v>-0.01305354138656078</v>
+      </c>
+      <c r="G93">
+        <v>-0.0260653762976257</v>
+      </c>
+      <c r="H93">
+        <v>-0.03857155992179537</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2416960792374759</v>
+        <v>-0.1195766092923191</v>
       </c>
       <c r="C94">
-        <v>-0.2863004276689163</v>
+        <v>-0.311042419576198</v>
       </c>
       <c r="D94">
-        <v>-0.1144055365869538</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.2738836963735819</v>
+      </c>
+      <c r="E94">
+        <v>-0.2235910845016995</v>
+      </c>
+      <c r="F94">
+        <v>0.1958833836719228</v>
+      </c>
+      <c r="G94">
+        <v>0.2344178068632878</v>
+      </c>
+      <c r="H94">
+        <v>-0.1492310415376742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.006014782761201355</v>
+        <v>-0.01519516022232111</v>
       </c>
       <c r="C95">
-        <v>-0.05848900157260135</v>
+        <v>-0.08814566424924453</v>
       </c>
       <c r="D95">
-        <v>0.1011724760440123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1418899946454616</v>
+      </c>
+      <c r="E95">
+        <v>-0.01708367330780962</v>
+      </c>
+      <c r="F95">
+        <v>0.05608199169925843</v>
+      </c>
+      <c r="G95">
+        <v>-0.06837554191017887</v>
+      </c>
+      <c r="H95">
+        <v>0.0350772033689526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002169528990398681</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001291828912464238</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0009758655686884859</v>
+      </c>
+      <c r="E97">
+        <v>0.004242463184080224</v>
+      </c>
+      <c r="F97">
+        <v>-6.672681352789129e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.000789362064711319</v>
+      </c>
+      <c r="H97">
+        <v>-0.006044818092284487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1420652278261838</v>
+        <v>-0.131715207131902</v>
       </c>
       <c r="C98">
-        <v>-0.1005930662989449</v>
+        <v>-0.1659962312591124</v>
       </c>
       <c r="D98">
-        <v>0.1274996520300678</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01495634702136586</v>
+      </c>
+      <c r="E98">
+        <v>0.1691831187336188</v>
+      </c>
+      <c r="F98">
+        <v>0.2430753514119523</v>
+      </c>
+      <c r="G98">
+        <v>-0.2683313621565959</v>
+      </c>
+      <c r="H98">
+        <v>0.1955116902602757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00173847430513422</v>
+        <v>-0.002347645287939651</v>
       </c>
       <c r="C101">
-        <v>-0.02091114768060902</v>
+        <v>-0.04133769638643723</v>
       </c>
       <c r="D101">
-        <v>0.06247769072852101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.05200225101344805</v>
+      </c>
+      <c r="E101">
+        <v>0.1190055889037693</v>
+      </c>
+      <c r="F101">
+        <v>-0.04646240874848442</v>
+      </c>
+      <c r="G101">
+        <v>0.009564199922739236</v>
+      </c>
+      <c r="H101">
+        <v>0.0499029263126827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08113079128900914</v>
+        <v>-0.01893760512110861</v>
       </c>
       <c r="C102">
-        <v>-0.1593616885153411</v>
+        <v>-0.1283291820813444</v>
       </c>
       <c r="D102">
-        <v>0.0081983599951147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06691951966453315</v>
+      </c>
+      <c r="E102">
+        <v>-0.07886750327253585</v>
+      </c>
+      <c r="F102">
+        <v>0.07511788279641471</v>
+      </c>
+      <c r="G102">
+        <v>0.04488522044849312</v>
+      </c>
+      <c r="H102">
+        <v>0.001471807660079575</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
